--- a/Enfermeria/HORARIOS ENFERMERIA_2023.xlsx
+++ b/Enfermeria/HORARIOS ENFERMERIA_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EF5637-1EB8-4013-ABE5-262AB5442511}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFAEFE7-2C4B-49FA-B921-601149DBAC4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="68">
   <si>
     <t>HORA</t>
   </si>
@@ -153,6 +153,84 @@
   </si>
   <si>
     <t>EF342</t>
+  </si>
+  <si>
+    <t>ID116(01)</t>
+  </si>
+  <si>
+    <t>ID116(02)</t>
+  </si>
+  <si>
+    <t>201B</t>
+  </si>
+  <si>
+    <t>MB103(01)</t>
+  </si>
+  <si>
+    <t>P3-08</t>
+  </si>
+  <si>
+    <t>202E</t>
+  </si>
+  <si>
+    <t>204C</t>
+  </si>
+  <si>
+    <t>MB103(01,02)</t>
+  </si>
+  <si>
+    <t>303A</t>
+  </si>
+  <si>
+    <t>MB101(02)</t>
+  </si>
+  <si>
+    <t>P3-01</t>
+  </si>
+  <si>
+    <t>CN114(01,02)</t>
+  </si>
+  <si>
+    <t>402A</t>
+  </si>
+  <si>
+    <t>403A</t>
+  </si>
+  <si>
+    <t>CN114(01)</t>
+  </si>
+  <si>
+    <t>P3-07</t>
+  </si>
+  <si>
+    <t>CN114(02)</t>
+  </si>
+  <si>
+    <t>EF101(01)</t>
+  </si>
+  <si>
+    <t>401E</t>
+  </si>
+  <si>
+    <t>P2-09</t>
+  </si>
+  <si>
+    <t>EF101(02)</t>
+  </si>
+  <si>
+    <t>402E</t>
+  </si>
+  <si>
+    <t>304A</t>
+  </si>
+  <si>
+    <t>MT115(01)</t>
+  </si>
+  <si>
+    <t>401A</t>
+  </si>
+  <si>
+    <t>MT115(02)</t>
   </si>
 </sst>
 </file>
@@ -176,12 +254,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -363,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +491,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -743,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25AAA-D2BB-4E62-8CC7-02DE57045219}">
   <dimension ref="A2:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,107 +867,116 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.140625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="24"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="34"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="27" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="8">
         <v>6</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="5"/>
+      <c r="R5" s="11">
+        <v>20</v>
+      </c>
+      <c r="S5" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="P6" s="9" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="P6" s="28" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="9">
         <v>8</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="12">
+        <v>20</v>
+      </c>
+      <c r="S6" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -863,24 +984,40 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="28" t="s">
         <v>30</v>
       </c>
       <c r="Q7" s="9">
         <v>7</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="12">
+        <v>20</v>
+      </c>
+      <c r="S7" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -888,24 +1025,44 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="9">
         <v>2</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="12">
+        <v>20</v>
+      </c>
+      <c r="S8" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -913,24 +1070,44 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="28" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="9">
         <v>8</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
+      <c r="R9" s="12">
+        <v>20</v>
+      </c>
+      <c r="S9" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -938,124 +1115,244 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
@@ -1063,52 +1360,92 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1190,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,80 +1539,81 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="24"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1299,8 +1637,12 @@
       <c r="Q6" s="8">
         <v>6</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="11">
+        <v>25</v>
+      </c>
+      <c r="S6" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1324,8 +1666,12 @@
       <c r="Q7" s="9">
         <v>6</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="12">
+        <v>25</v>
+      </c>
+      <c r="S7" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1349,8 +1695,12 @@
       <c r="Q8" s="9">
         <v>8</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="12">
+        <v>20</v>
+      </c>
+      <c r="S8" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1375,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1399,88 +1749,92 @@
       <c r="Q10" s="9">
         <v>6</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="R10" s="12">
+        <v>20</v>
+      </c>
+      <c r="S10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="6"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="13"/>
-      <c r="S13" s="7"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1516,39 +1870,39 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1629,7 +1983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B34897-C3CC-413D-A044-78825B535787}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -1645,76 +1999,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
